--- a/Team_task/Task.xlsx
+++ b/Team_task/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BaiTapCyber\CapStoneJS\Team_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A358E-2901-4C2C-94EB-FC284FDF3E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893FE79C-B375-4AFB-9BBF-291A69781E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Công việc</t>
   </si>
@@ -56,7 +56,65 @@
     <t>Nguyễn Tấn Lộc</t>
   </si>
   <si>
-    <t>Vấn đề chưa làm được: thao tác thêm xóa sửa các data cũ không thực được, chỉ thực hiện data thêm mới vào product</t>
+    <t>Tạo layout</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Layout admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hỗ trợ </t>
+  </si>
+  <si>
+    <t>Layout user</t>
+  </si>
+  <si>
+    <t>Tạo API</t>
+  </si>
+  <si>
+    <t>API User</t>
+  </si>
+  <si>
+    <t>API Admin</t>
+  </si>
+  <si>
+    <t>Tìm data 
+tạo API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉnh sửa giao diện </t>
+  </si>
+  <si>
+    <t>Tạo file JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API thao tác </t>
+  </si>
+  <si>
+    <t>API thao tác</t>
+  </si>
+  <si>
+    <t>Hỗ trợ JS</t>
+  </si>
+  <si>
+    <t>7-9/2/2025</t>
+  </si>
+  <si>
+    <t>Hoàn thiện BT</t>
+  </si>
+  <si>
+    <t>Sửa đổi thao tác JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa đổi giao diện </t>
+  </si>
+  <si>
+    <t>Hỗ trợ code JS</t>
   </si>
 </sst>
 </file>
@@ -111,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -134,31 +192,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -171,13 +286,112 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,275 +882,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="34"/>
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="17">
+        <v>45690</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="18"/>
+      <c r="C5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="17">
+        <v>45749</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="19"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="15">
+        <v>45779</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="17">
+        <v>45810</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="18"/>
+      <c r="C12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="40">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="42"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="43"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="16"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="16"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="16"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="I19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
+  <mergeCells count="18">
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
